--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt7b-Lrp5.xlsx
@@ -546,10 +546,10 @@
         <v>0.218757</v>
       </c>
       <c r="I2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J2">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N2">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O2">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P2">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q2">
-        <v>1.299693113154333</v>
+        <v>1.245569787513333</v>
       </c>
       <c r="R2">
-        <v>11.697238018389</v>
+        <v>11.21012808762</v>
       </c>
       <c r="S2">
-        <v>0.04303141671335591</v>
+        <v>0.05174403089119315</v>
       </c>
       <c r="T2">
-        <v>0.04303141671335592</v>
+        <v>0.05174403089119315</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.218757</v>
       </c>
       <c r="I3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J3">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P3">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q3">
         <v>0.762227630087</v>
@@ -638,10 +638,10 @@
         <v>6.860048670783</v>
       </c>
       <c r="S3">
-        <v>0.0252365227212007</v>
+        <v>0.03166480949741283</v>
       </c>
       <c r="T3">
-        <v>0.0252365227212007</v>
+        <v>0.03166480949741283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.218757</v>
       </c>
       <c r="I4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J4">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N4">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P4">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q4">
-        <v>0.31180310238</v>
+        <v>0.6123827067306665</v>
       </c>
       <c r="R4">
-        <v>2.80622792142</v>
+        <v>5.511444360575999</v>
       </c>
       <c r="S4">
-        <v>0.01032345951150524</v>
+        <v>0.02543988302539402</v>
       </c>
       <c r="T4">
-        <v>0.01032345951150524</v>
+        <v>0.02543988302539402</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.218757</v>
       </c>
       <c r="I5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J5">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N5">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P5">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q5">
-        <v>0.2198898452776667</v>
+        <v>0.3291918289403333</v>
       </c>
       <c r="R5">
-        <v>1.979008607499</v>
+        <v>2.962726460463</v>
       </c>
       <c r="S5">
-        <v>0.007280312150161432</v>
+        <v>0.01367543780892698</v>
       </c>
       <c r="T5">
-        <v>0.007280312150161432</v>
+        <v>0.01367543780892698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.218757</v>
       </c>
       <c r="I6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="J6">
-        <v>0.1016383815134179</v>
+        <v>0.1477750351608889</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N6">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P6">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q6">
-        <v>0.4762063283926666</v>
+        <v>0.6078329257256667</v>
       </c>
       <c r="R6">
-        <v>4.285856955534</v>
+        <v>5.470496331531001</v>
       </c>
       <c r="S6">
-        <v>0.01576667041719465</v>
+        <v>0.02525087393796193</v>
       </c>
       <c r="T6">
-        <v>0.01576667041719465</v>
+        <v>0.02525087393796193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H7">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I7">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J7">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.82379233333333</v>
+        <v>17.08155333333333</v>
       </c>
       <c r="N7">
-        <v>53.471377</v>
+        <v>51.24466</v>
       </c>
       <c r="O7">
-        <v>0.4233776263711466</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="P7">
-        <v>0.4233776263711467</v>
+        <v>0.3501540759902865</v>
       </c>
       <c r="Q7">
-        <v>11.48773122203889</v>
+        <v>7.183254378606667</v>
       </c>
       <c r="R7">
-        <v>103.38958099835</v>
+        <v>64.64928940746</v>
       </c>
       <c r="S7">
-        <v>0.3803462096577908</v>
+        <v>0.2984100450990933</v>
       </c>
       <c r="T7">
-        <v>0.3803462096577908</v>
+        <v>0.2984100450990933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H8">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I8">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J8">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>31.359219</v>
       </c>
       <c r="O8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="P8">
-        <v>0.2482971722436279</v>
+        <v>0.2142771237573249</v>
       </c>
       <c r="Q8">
-        <v>6.737179766383333</v>
+        <v>4.395799429471</v>
       </c>
       <c r="R8">
-        <v>60.63461789744999</v>
+        <v>39.562194865239</v>
       </c>
       <c r="S8">
-        <v>0.2230606495224272</v>
+        <v>0.182612314259912</v>
       </c>
       <c r="T8">
-        <v>0.2230606495224272</v>
+        <v>0.182612314259912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H9">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I9">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J9">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.27602</v>
+        <v>8.398122666666666</v>
       </c>
       <c r="N9">
-        <v>12.82806</v>
+        <v>25.194368</v>
       </c>
       <c r="O9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="P9">
-        <v>0.1015704830969034</v>
+        <v>0.1721527793764119</v>
       </c>
       <c r="Q9">
-        <v>2.755966157</v>
+        <v>3.531637330645333</v>
       </c>
       <c r="R9">
-        <v>24.803695413</v>
+        <v>31.784735975808</v>
       </c>
       <c r="S9">
-        <v>0.0912470235853982</v>
+        <v>0.1467128963510179</v>
       </c>
       <c r="T9">
-        <v>0.0912470235853982</v>
+        <v>0.1467128963510179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H10">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I10">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J10">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.015535666666667</v>
+        <v>4.514486333333333</v>
       </c>
       <c r="N10">
-        <v>9.046607</v>
+        <v>13.543459</v>
       </c>
       <c r="O10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953211</v>
       </c>
       <c r="P10">
-        <v>0.07162955609638778</v>
+        <v>0.09254227409953213</v>
       </c>
       <c r="Q10">
-        <v>1.943562996094444</v>
+        <v>1.898463394297667</v>
       </c>
       <c r="R10">
-        <v>17.49206696485</v>
+        <v>17.086170548679</v>
       </c>
       <c r="S10">
-        <v>0.06434924394622636</v>
+        <v>0.07886683629060513</v>
       </c>
       <c r="T10">
-        <v>0.06434924394622635</v>
+        <v>0.07886683629060515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6445166666666666</v>
+        <v>0.420527</v>
       </c>
       <c r="H11">
-        <v>1.93355</v>
+        <v>1.261581</v>
       </c>
       <c r="I11">
-        <v>0.8983616184865821</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="J11">
-        <v>0.898361618486582</v>
+        <v>0.852224964839111</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.530620666666667</v>
+        <v>8.335727666666667</v>
       </c>
       <c r="N11">
-        <v>19.591862</v>
+        <v>25.007183</v>
       </c>
       <c r="O11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="P11">
-        <v>0.1551251621919343</v>
+        <v>0.1708737467764446</v>
       </c>
       <c r="Q11">
-        <v>4.209093863344444</v>
+        <v>3.505398548480334</v>
       </c>
       <c r="R11">
-        <v>37.8818447701</v>
+        <v>31.548586936323</v>
       </c>
       <c r="S11">
-        <v>0.1393584917747397</v>
+        <v>0.1456228728384827</v>
       </c>
       <c r="T11">
-        <v>0.1393584917747396</v>
+        <v>0.1456228728384827</v>
       </c>
     </row>
   </sheetData>
